--- a/biology/Médecine/Tension_des_gaz_du_sang/Tension_des_gaz_du_sang.xlsx
+++ b/biology/Médecine/Tension_des_gaz_du_sang/Tension_des_gaz_du_sang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tension des gaz du sang signifie la pression partielle de gaz dans le sang[1]. Il y a plusieurs raisons pour mesurer le gaz de tension[2] ; les tensions de gaz les plus mesurées sont celles de l'oxygène[3] (PxO2), du dioxyde de carbone[3] (PxCO2) et du monoxyde de carbone[3] (PxCO). L'indice x dans chaque symbole représente la source du gaz mesuré; "a" correspond à artérielle[3], "A" à alvéolaire[3], "v" à veineux[3] et "c" à capillaire[3]. les tests des gaz du sang (tel que la gazométrie) mesure ces pressions partielles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tension des gaz du sang signifie la pression partielle de gaz dans le sang. Il y a plusieurs raisons pour mesurer le gaz de tension ; les tensions de gaz les plus mesurées sont celles de l'oxygène (PxO2), du dioxyde de carbone (PxCO2) et du monoxyde de carbone (PxCO). L'indice x dans chaque symbole représente la source du gaz mesuré; "a" correspond à artérielle, "A" à alvéolaire, "v" à veineux et "c" à capillaire. les tests des gaz du sang (tel que la gazométrie) mesure ces pressions partielles.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>La tension d'oxygène</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pression partielle normale d'oxygène du sang artériel
-PaO2 – se situe entre 75 et 100 mmHg mmHg, au niveau de la mer (765 mm hg)[4],[5],[6].
+PaO2 – se situe entre 75 et 100 mmHg mmHg, au niveau de la mer (765 mm hg).
 La pression partielle normale d'oxygène du sang veineux
-PvO2 – se situe entre 30 et 40 mmHg mmHg au niveau de la mer[6],[7]. 
+PvO2 – se situe entre 30 et 40 mmHg mmHg au niveau de la mer,. 
 </t>
         </is>
       </c>
@@ -545,13 +559,15 @@
           <t>La tension du dioxyde de carbone</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dioxyde de carbone est un produit du métabolisme des aliments. Il possède des effets toxiques à haute concentration, y compris: la dyspnée, l'acidose et l'altération de la conscience[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dioxyde de carbone est un produit du métabolisme des aliments. Il possède des effets toxiques à haute concentration, y compris: la dyspnée, l'acidose et l'altération de la conscience.
 Pression partielle normale du dioxyde de carbone du sang artériel.
-PaCO2 – se situe 35 mmHg et 45 mmHg[9].
+PaCO2 – se situe 35 mmHg et 45 mmHg.
 Pression partielle normale du dioxyde de carbone du sang veineux.
-PvCO2 – se situe entre 40 mmHg et 50 mmHg[9].
+PvCO2 – se situe entre 40 mmHg et 50 mmHg.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>La tension du monoxyde de carbone</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pression partielle normale du monoxyde de carbone du sang artériel.
 PaCO – est d'environ 0.02 mmHg. Elle peut être légèrement plus élevé chez les fumeurs et les personnes vivant dans des zones urbaines denses.
@@ -612,9 +630,11 @@
           <t>Importance clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pression partielle du gaz dans le sang est importante car elle est directement liée à la ventilation et l'oxygénation[10]. Quand La PaCO2 et le HCO3 (et les Lactates) sont utilisés en contingence avec le pH du sang, ils permettent de suggérer au praticien quels interventions, si le besoin est présent, devraient être faites[10],[11]. Une enquête auprès des personnes en bonne santé a été fait pour mesurer la "normale" des valeurs des gaz du sang et leurs variations selon l'âge, le sexe, le poids et la hauteur[12]. Il a également été constaté, ces valeurs dépendent de la pression atmosphérique, et donc de l'altitude. Des calculatrices en ligne[13] permettent de calculer la normale attendue des valeurs de tension des gaz du sang et des pH basé sur l'âge du patient, la taille, le sexe, le poids et la pression atmosphérique.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pression partielle du gaz dans le sang est importante car elle est directement liée à la ventilation et l'oxygénation. Quand La PaCO2 et le HCO3 (et les Lactates) sont utilisés en contingence avec le pH du sang, ils permettent de suggérer au praticien quels interventions, si le besoin est présent, devraient être faites,. Une enquête auprès des personnes en bonne santé a été fait pour mesurer la "normale" des valeurs des gaz du sang et leurs variations selon l'âge, le sexe, le poids et la hauteur. Il a également été constaté, ces valeurs dépendent de la pression atmosphérique, et donc de l'altitude. Des calculatrices en ligne permettent de calculer la normale attendue des valeurs de tension des gaz du sang et des pH basé sur l'âge du patient, la taille, le sexe, le poids et la pression atmosphérique.
 </t>
         </is>
       </c>
@@ -645,7 +665,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">La teneur en oxygène
+          <t>La teneur en oxygène</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
           C
             a
           O
@@ -673,8 +699,44 @@
           O
             2
     {\displaystyle C_{a}O_{2}=1{,}36\cdot Hgb\cdot {\frac {S_{a}O_{2}}{100}}+0{,}0031\cdot P_{a}O_{2}}
-La constante, 1,36, est la quantité d'oxygène (ml à 1 atmosphère) lié par gramme d'hémoglobine. La valeur exacte de cette constante varie de 1,34 à 1,39, selon la source et manière de là calculer. La constante 0,0031 représente la quantité d'oxygène dissoutes dans le plasma. La dissolution de l'oxygène est généralement faible par rapport à l'oxygène lié à l'hémoglobine mais elle devient significative à très haute PaO2 (comme dans une chambre hyperbare) ou dans le cas d'une grave anémie[14].
-La saturation en oxygène
+La constante, 1,36, est la quantité d'oxygène (ml à 1 atmosphère) lié par gramme d'hémoglobine. La valeur exacte de cette constante varie de 1,34 à 1,39, selon la source et manière de là calculer. La constante 0,0031 représente la quantité d'oxygène dissoutes dans le plasma. La dissolution de l'oxygène est généralement faible par rapport à l'oxygène lié à l'hémoglobine mais elle devient significative à très haute PaO2 (comme dans une chambre hyperbare) ou dans le cas d'une grave anémie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tension_des_gaz_du_sang</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tension_des_gaz_du_sang</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Équations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La saturation en oxygène</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
         S
           O
             2
@@ -697,7 +759,7 @@
             −
             1
     {\displaystyle SO_{2}=({\frac {23\;400}{pO_{2}^{3}+150pO_{2}}}+1)^{-1}}
-Ceci est une estimation qui ne tient pas compte des changements de température, du pH et des concentrations de 2,3 DPG[15].
+Ceci est une estimation qui ne tient pas compte des changements de température, du pH et des concentrations de 2,3 DPG.
 </t>
         </is>
       </c>
